--- a/config_7.13/shoping_config.xlsx
+++ b/config_7.13/shoping_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5453" uniqueCount="1853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5453" uniqueCount="1854">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -5868,6 +5868,9 @@
   </si>
   <si>
     <t>消暑礼包</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_qdlb_cjq_cjj",</t>
   </si>
   <si>
     <t>抽奖礼包</t>
@@ -6768,8 +6771,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -6810,6 +6813,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -6817,14 +6842,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6840,16 +6904,25 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6862,84 +6935,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6948,6 +6944,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7069,13 +7072,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7087,31 +7150,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7123,25 +7192,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7159,67 +7216,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7259,6 +7262,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -7270,6 +7284,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7293,50 +7322,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -7356,6 +7341,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -7364,10 +7367,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7376,133 +7379,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -8269,7 +8272,7 @@
   <sheetPr/>
   <dimension ref="A1:AH883"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -13701,12 +13704,12 @@
   <sheetPr/>
   <dimension ref="A1:AO694"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H649" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="Q670" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H$1:H$1048576"/>
+      <selection pane="bottomRight" activeCell="S686" sqref="S686"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -57844,7 +57847,7 @@
         <v>49800</v>
       </c>
       <c r="R683" s="33" t="s">
-        <v>1574</v>
+        <v>1649</v>
       </c>
       <c r="S683" s="36" t="s">
         <v>1575</v>
@@ -57909,7 +57912,7 @@
         <v>19800</v>
       </c>
       <c r="R684" s="33" t="s">
-        <v>1574</v>
+        <v>1649</v>
       </c>
       <c r="S684" s="36" t="s">
         <v>1577</v>
@@ -57974,7 +57977,7 @@
         <v>9800</v>
       </c>
       <c r="R685" s="33" t="s">
-        <v>1574</v>
+        <v>1649</v>
       </c>
       <c r="S685" s="36" t="s">
         <v>1579</v>
@@ -58039,7 +58042,7 @@
         <v>4800</v>
       </c>
       <c r="R686" s="33" t="s">
-        <v>1574</v>
+        <v>1649</v>
       </c>
       <c r="S686" s="36" t="s">
         <v>1581</v>
@@ -58104,7 +58107,7 @@
         <v>2000</v>
       </c>
       <c r="R687" s="33" t="s">
-        <v>1574</v>
+        <v>1649</v>
       </c>
       <c r="S687" s="36" t="s">
         <v>1583</v>
@@ -58169,7 +58172,7 @@
         <v>600</v>
       </c>
       <c r="R688" s="33" t="s">
-        <v>1574</v>
+        <v>1649</v>
       </c>
       <c r="S688" s="36" t="s">
         <v>1585</v>
@@ -58213,10 +58216,10 @@
         <v>0</v>
       </c>
       <c r="G689" s="35" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="K689" s="33" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="M689" s="33">
         <v>-31</v>
@@ -58278,10 +58281,10 @@
         <v>0</v>
       </c>
       <c r="G690" s="35" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="K690" s="33" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="M690" s="33">
         <v>-31</v>
@@ -58343,10 +58346,10 @@
         <v>0</v>
       </c>
       <c r="G691" s="35" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="K691" s="33" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="M691" s="33">
         <v>-31</v>
@@ -58408,10 +58411,10 @@
         <v>0</v>
       </c>
       <c r="G692" s="35" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="K692" s="33" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="M692" s="33">
         <v>-31</v>
@@ -58473,10 +58476,10 @@
         <v>0</v>
       </c>
       <c r="G693" s="35" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="K693" s="33" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="M693" s="33">
         <v>-31</v>
@@ -58538,10 +58541,10 @@
         <v>0</v>
       </c>
       <c r="G694" s="35" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="K694" s="33" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="M694" s="33">
         <v>-31</v>
@@ -58621,19 +58624,19 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="58.5" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="2" ht="57.75" customHeight="1" spans="1:5">
@@ -58641,7 +58644,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -58650,7 +58653,7 @@
         <v>3600</v>
       </c>
       <c r="E2" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="3" ht="78.75" customHeight="1" spans="1:4">
@@ -58658,7 +58661,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -58672,7 +58675,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -58686,7 +58689,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -58700,7 +58703,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -58714,7 +58717,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -58728,7 +58731,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -58742,7 +58745,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -58756,7 +58759,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -58770,7 +58773,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -58784,7 +58787,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -58798,7 +58801,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -58812,7 +58815,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -58826,7 +58829,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -58840,7 +58843,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -58854,7 +58857,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -58868,7 +58871,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -58882,7 +58885,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -58896,7 +58899,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -58910,7 +58913,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -58924,7 +58927,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
@@ -58938,7 +58941,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
@@ -58952,7 +58955,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
@@ -58966,7 +58969,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
@@ -58980,7 +58983,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
@@ -58994,7 +58997,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -59009,7 +59012,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
@@ -59024,7 +59027,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -59039,7 +59042,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -59054,7 +59057,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -59069,7 +59072,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -59084,7 +59087,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -59099,7 +59102,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -59114,7 +59117,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -59129,7 +59132,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -59144,7 +59147,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -59159,7 +59162,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -59174,7 +59177,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
@@ -59188,7 +59191,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
@@ -59202,7 +59205,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -59216,7 +59219,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
@@ -59230,7 +59233,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
@@ -59244,7 +59247,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -59258,7 +59261,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
@@ -59272,7 +59275,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
@@ -59286,7 +59289,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
@@ -59300,7 +59303,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="C48" s="2">
         <v>1</v>
@@ -59314,7 +59317,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="C49" s="2">
         <v>1</v>
@@ -59328,7 +59331,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
@@ -59342,7 +59345,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="C51" s="2">
         <v>1</v>
@@ -59356,7 +59359,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="C52" s="2">
         <v>1</v>
@@ -59370,7 +59373,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="C53" s="2">
         <v>1</v>
@@ -59384,7 +59387,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="C54" s="2">
         <v>1</v>
@@ -59398,7 +59401,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="C55" s="2">
         <v>1</v>
@@ -59412,7 +59415,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="C56" s="2">
         <v>1</v>
@@ -59426,7 +59429,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
@@ -59440,7 +59443,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="C58" s="2">
         <v>1</v>
@@ -59454,7 +59457,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="C59" s="2">
         <v>1</v>
@@ -59468,7 +59471,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="C60" s="2">
         <v>1</v>
@@ -59482,7 +59485,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="C61" s="2">
         <v>1</v>
@@ -59496,7 +59499,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="C62" s="2">
         <v>1</v>
@@ -59510,7 +59513,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
@@ -59524,7 +59527,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="C64" s="2">
         <v>1</v>
@@ -59538,7 +59541,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="C65" s="2">
         <v>1</v>
@@ -59552,7 +59555,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="C66" s="2">
         <v>1</v>
@@ -59566,7 +59569,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="C67" s="2">
         <v>1</v>
@@ -59580,7 +59583,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="C68" s="2">
         <v>1</v>
@@ -59594,7 +59597,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="C69" s="2">
         <v>1</v>
@@ -59608,7 +59611,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="C70" s="2">
         <v>1</v>
@@ -59622,7 +59625,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="C71" s="2">
         <v>1</v>
@@ -59636,7 +59639,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="C72" s="2">
         <v>1</v>
@@ -59650,7 +59653,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="C73" s="2">
         <v>1</v>
@@ -59664,7 +59667,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="C74" s="2">
         <v>1</v>
@@ -59678,7 +59681,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="C75" s="2">
         <v>1</v>
@@ -59692,7 +59695,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="C76" s="2">
         <v>1</v>
@@ -59706,7 +59709,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="C77" s="2">
         <v>1</v>
@@ -59720,7 +59723,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="C78" s="2">
         <v>1</v>
@@ -59734,7 +59737,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="C79" s="2">
         <v>1</v>
@@ -59748,7 +59751,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="C80" s="2">
         <v>1</v>
@@ -59762,7 +59765,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="C81" s="2">
         <v>1</v>
@@ -59776,7 +59779,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="C82" s="2">
         <v>1</v>
@@ -59790,7 +59793,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="C83" s="2">
         <v>1</v>
@@ -59804,7 +59807,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="C84" s="2">
         <v>1</v>
@@ -59818,7 +59821,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -59872,7 +59875,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="90" customHeight="1" spans="1:30">
       <c r="A1" s="1" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
@@ -59887,19 +59890,19 @@
         <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>32</v>
@@ -59914,7 +59917,7 @@
         <v>39</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>40</v>
@@ -59959,7 +59962,7 @@
         <v>53</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="2" s="12" customFormat="1" spans="1:27">
@@ -59979,7 +59982,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="H2" s="12">
         <v>600</v>
@@ -60009,19 +60012,19 @@
         <v>131</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="T2" s="17" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="U2" s="12" t="s">
         <v>62</v>
       </c>
       <c r="V2" s="17" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="W2" s="12" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="Z2" s="12">
         <v>1</v>
@@ -60050,7 +60053,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="H3" s="12">
         <v>1500</v>
@@ -60077,22 +60080,22 @@
         <v>4</v>
       </c>
       <c r="Q3" s="17" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="T3" s="17" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="U3" s="12" t="s">
         <v>67</v>
       </c>
       <c r="V3" s="17" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="W3" s="12" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="Z3" s="12">
         <v>1</v>
@@ -60121,7 +60124,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="H4" s="12">
         <v>3000</v>
@@ -60148,22 +60151,22 @@
         <v>5</v>
       </c>
       <c r="Q4" s="17" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="R4" s="17" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="T4" s="17" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="U4" s="12" t="s">
         <v>71</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="W4" s="12" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="Z4" s="12">
         <v>1</v>
@@ -60192,7 +60195,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="H5" s="12">
         <v>5000</v>
@@ -60219,22 +60222,22 @@
         <v>6</v>
       </c>
       <c r="Q5" s="17" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="T5" s="17" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="U5" s="12" t="s">
         <v>75</v>
       </c>
       <c r="V5" s="17" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="W5" s="12" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="Z5" s="12">
         <v>1</v>
@@ -60263,7 +60266,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="H6" s="12">
         <v>9800</v>
@@ -60290,22 +60293,22 @@
         <v>7</v>
       </c>
       <c r="Q6" s="17" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="R6" s="17" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="T6" s="17" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="U6" s="12" t="s">
         <v>79</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="W6" s="12" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="Z6" s="12">
         <v>1</v>
@@ -60334,7 +60337,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="H7" s="12">
         <v>49800</v>
@@ -60361,22 +60364,22 @@
         <v>9</v>
       </c>
       <c r="Q7" s="17" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="R7" s="17" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="T7" s="17" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="U7" s="12" t="s">
         <v>83</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="W7" s="12" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="Z7" s="12">
         <v>1</v>
@@ -60400,7 +60403,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="H8" s="12">
         <v>100</v>
@@ -60427,22 +60430,22 @@
         <v>0</v>
       </c>
       <c r="Q8" s="17" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="R8" s="17" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="T8" s="17" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="U8" s="12" t="s">
         <v>62</v>
       </c>
       <c r="V8" s="17" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="W8" s="12" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="Z8" s="12">
         <v>1</v>
@@ -60466,7 +60469,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="H9" s="12">
         <v>5000</v>
@@ -60493,19 +60496,19 @@
         <v>2</v>
       </c>
       <c r="Q9" s="17" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="R9" s="17" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="U9" s="12">
         <v>5000</v>
       </c>
       <c r="V9" s="12" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="W9" s="12" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="Z9" s="12">
         <v>1</v>
@@ -60514,7 +60517,7 @@
         <v>1</v>
       </c>
       <c r="AD9" s="17" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="10" s="12" customFormat="1" spans="1:30">
@@ -60532,7 +60535,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="H10" s="12">
         <v>1000</v>
@@ -60562,16 +60565,16 @@
         <v>133</v>
       </c>
       <c r="R10" s="17" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U10" s="12">
         <v>1000</v>
       </c>
       <c r="V10" s="12" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="W10" s="12" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="Z10" s="12">
         <v>1</v>
@@ -60580,7 +60583,7 @@
         <v>1</v>
       </c>
       <c r="AD10" s="17" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="11" s="12" customFormat="1" spans="1:27">
@@ -60598,7 +60601,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="H11" s="12">
         <v>1500</v>
@@ -60625,22 +60628,22 @@
         <v>0</v>
       </c>
       <c r="Q11" s="17" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="R11" s="17" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="T11" s="17" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="U11" s="17" t="s">
         <v>67</v>
       </c>
       <c r="V11" s="12" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="W11" s="12" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="Z11" s="12">
         <v>1</v>
@@ -60669,7 +60672,7 @@
         <v>107</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="H12" s="12">
         <v>100000</v>
@@ -60696,22 +60699,22 @@
         <v>9</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="R12" s="17" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="T12" s="17" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="U12" s="12" t="s">
         <v>87</v>
       </c>
       <c r="V12" s="12" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="W12" s="12" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="Z12" s="12">
         <v>1</v>
@@ -60740,7 +60743,7 @@
         <v>108</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="H13" s="12">
         <v>99800</v>
@@ -60767,22 +60770,22 @@
         <v>10</v>
       </c>
       <c r="Q13" s="17" t="s">
+        <v>1782</v>
+      </c>
+      <c r="R13" s="17" t="s">
+        <v>1783</v>
+      </c>
+      <c r="T13" s="17" t="s">
+        <v>1755</v>
+      </c>
+      <c r="U13" s="12" t="s">
+        <v>1784</v>
+      </c>
+      <c r="V13" s="12" t="s">
         <v>1781</v>
       </c>
-      <c r="R13" s="17" t="s">
-        <v>1782</v>
-      </c>
-      <c r="T13" s="17" t="s">
-        <v>1754</v>
-      </c>
-      <c r="U13" s="12" t="s">
-        <v>1783</v>
-      </c>
-      <c r="V13" s="12" t="s">
-        <v>1780</v>
-      </c>
       <c r="W13" s="12" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="Z13" s="12">
         <v>1</v>
@@ -60811,7 +60814,7 @@
         <v>110</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="H14" s="12">
         <v>249800</v>
@@ -60838,22 +60841,22 @@
         <v>11</v>
       </c>
       <c r="Q14" s="17" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="R14" s="17" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="T14" s="17" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="W14" s="12" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="Z14" s="12">
         <v>1</v>
@@ -60877,7 +60880,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="H15" s="12">
         <v>100</v>
@@ -60907,20 +60910,20 @@
         <v>0</v>
       </c>
       <c r="Q15" s="17" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="R15" s="17" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="T15" s="17"/>
       <c r="U15" s="12">
         <v>100</v>
       </c>
       <c r="V15" s="17" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="W15" s="12" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="Z15" s="12">
         <v>1</v>
@@ -60929,7 +60932,7 @@
         <v>1</v>
       </c>
       <c r="AD15" s="17" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="16" s="12" customFormat="1" spans="1:27">
@@ -60952,7 +60955,7 @@
         <v>101</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="H16" s="12">
         <v>400</v>
@@ -60979,22 +60982,22 @@
         <v>3</v>
       </c>
       <c r="Q16" s="17" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="R16" s="17" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="T16" s="17" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="U16" s="12" t="s">
         <v>101</v>
       </c>
       <c r="V16" s="17" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="W16" s="12" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="Z16" s="12">
         <v>1</v>
@@ -61018,7 +61021,7 @@
         <v>102</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="H17" s="12">
         <v>2000</v>
@@ -61045,22 +61048,22 @@
         <v>4</v>
       </c>
       <c r="Q17" s="17" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="R17" s="17" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="T17" s="17" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="U17" s="12" t="s">
         <v>105</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="W17" s="12" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="Z17" s="12">
         <v>1</v>
@@ -61084,7 +61087,7 @@
         <v>103</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="H18" s="12">
         <v>6700</v>
@@ -61111,22 +61114,22 @@
         <v>5</v>
       </c>
       <c r="Q18" s="17" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="R18" s="17" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="T18" s="17" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="U18" s="12" t="s">
         <v>109</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="W18" s="12" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="Z18" s="12">
         <v>1</v>
@@ -61150,7 +61153,7 @@
         <v>104</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="H19" s="12">
         <v>13200</v>
@@ -61177,22 +61180,22 @@
         <v>6</v>
       </c>
       <c r="Q19" s="17" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="R19" s="17" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="T19" s="17" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="U19" s="12" t="s">
         <v>114</v>
       </c>
       <c r="V19" s="17" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="W19" s="12" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="Z19" s="12">
         <v>1</v>
@@ -61216,7 +61219,7 @@
         <v>105</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="H20" s="12">
         <v>20400</v>
@@ -61243,22 +61246,22 @@
         <v>7</v>
       </c>
       <c r="Q20" s="17" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="R20" s="17" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="T20" s="17" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="U20" s="12" t="s">
         <v>120</v>
       </c>
       <c r="V20" s="12" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="W20" s="12" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="Z20" s="12">
         <v>1</v>
@@ -61282,7 +61285,7 @@
         <v>101</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="H21" s="13">
         <v>100</v>
@@ -61309,22 +61312,22 @@
         <v>0</v>
       </c>
       <c r="Q21" s="18" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="R21" s="18" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="T21" s="18" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="U21" s="13" t="s">
         <v>124</v>
       </c>
       <c r="V21" s="18" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="W21" s="13" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="Z21" s="13">
         <v>1</v>
@@ -61348,7 +61351,7 @@
         <v>104</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="H22" s="12">
         <v>5000</v>
@@ -61375,20 +61378,20 @@
         <v>2</v>
       </c>
       <c r="Q22" s="17" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="R22" s="17" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="T22" s="17"/>
       <c r="U22" s="12">
         <v>5000</v>
       </c>
       <c r="V22" s="17" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="W22" s="12" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="Z22" s="12">
         <v>1</v>
@@ -61412,7 +61415,7 @@
         <v>102</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="H23" s="12">
         <v>1000</v>
@@ -61442,17 +61445,17 @@
         <v>133</v>
       </c>
       <c r="R23" s="17" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="12">
         <v>1000</v>
       </c>
       <c r="V23" s="17" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="W23" s="12" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="Z23" s="12">
         <v>1</v>
@@ -61469,14 +61472,14 @@
         <v>109</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="D24" s="15"/>
       <c r="F24" s="12">
         <v>101</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="H24" s="12">
         <v>100</v>
@@ -61506,20 +61509,20 @@
         <v>0</v>
       </c>
       <c r="Q24" s="17" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="R24" s="17" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="T24" s="17"/>
       <c r="U24" s="12">
         <v>100</v>
       </c>
       <c r="V24" s="17" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="W24" s="12" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="Z24" s="12">
         <v>1</v>
@@ -61528,7 +61531,7 @@
         <v>1</v>
       </c>
       <c r="AD24" s="17" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="25" s="12" customFormat="1" spans="1:27">
@@ -61551,7 +61554,7 @@
         <v>111</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="H25" s="12">
         <v>19800</v>
@@ -61578,22 +61581,22 @@
         <v>8</v>
       </c>
       <c r="Q25" s="17" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="R25" s="17" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="T25" s="17" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="U25" s="17" t="s">
         <v>143</v>
       </c>
       <c r="V25" s="17" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="W25" s="12" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="Z25" s="12">
         <v>1</v>
@@ -61663,13 +61666,13 @@
         <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>32</v>
@@ -61681,16 +61684,16 @@
         <v>155</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>39</v>
@@ -61731,7 +61734,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -61743,7 +61746,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="L2" s="2">
         <v>54</v>
@@ -61752,7 +61755,7 @@
         <v>999999</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
@@ -61761,22 +61764,22 @@
         <v>1</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="T2" s="2">
         <v>60000</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:23">
@@ -61787,7 +61790,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -61799,7 +61802,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="L3" s="2">
         <v>54</v>
@@ -61808,7 +61811,7 @@
         <v>999999</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -61817,22 +61820,22 @@
         <v>2</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="T3" s="2">
         <v>500000</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="W3" s="2">
         <v>8.3</v>
@@ -61846,7 +61849,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -61871,19 +61874,19 @@
         <v>4</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="T4" s="2">
         <v>15000</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:22">
@@ -61894,7 +61897,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -61921,10 +61924,10 @@
         <v>100000</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:22">
@@ -61935,7 +61938,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
@@ -61962,10 +61965,10 @@
         <v>100000</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:23">
@@ -61976,7 +61979,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
@@ -61988,7 +61991,7 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="L7" s="2">
         <v>56</v>
@@ -61997,7 +62000,7 @@
         <v>999999</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="O7" s="6">
         <v>0</v>
@@ -62006,22 +62009,22 @@
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="T7" s="2">
         <v>500000</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="W7" s="2">
         <v>8.3</v>
@@ -62035,10 +62038,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="F8" s="2">
         <v>100</v>
@@ -62050,7 +62053,7 @@
         <v>125</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="L8" s="2">
         <v>57</v>
@@ -62065,22 +62068,22 @@
         <v>5</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="T8" s="2">
         <v>100</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:22">
@@ -62091,10 +62094,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="F9" s="2">
         <v>1000</v>
@@ -62109,16 +62112,16 @@
         <v>6</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="T9" s="2">
         <v>1000</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:22">
@@ -62129,10 +62132,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="F10" s="2">
         <v>5800</v>
@@ -62147,16 +62150,16 @@
         <v>7</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="T10" s="2">
         <v>5800</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:22">
@@ -62167,10 +62170,10 @@
         <v>17</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="F11" s="2">
         <v>8800</v>
@@ -62185,16 +62188,16 @@
         <v>8</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="T11" s="2">
         <v>8800</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:22">
@@ -62205,10 +62208,10 @@
         <v>18</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="F12" s="2">
         <v>18800</v>
@@ -62223,16 +62226,16 @@
         <v>9</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="T12" s="2">
         <v>18800</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:23">
@@ -62243,7 +62246,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
@@ -62267,16 +62270,16 @@
         <v>0</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="T13" s="2">
         <v>70000</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="W13" s="2">
         <v>7</v>
@@ -62290,7 +62293,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>14</v>
@@ -62314,16 +62317,16 @@
         <v>0</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="T14" s="2">
         <v>180000</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="W14" s="2">
         <v>6</v>
@@ -62337,10 +62340,10 @@
         <v>21</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="F15" s="2">
         <v>1500</v>
@@ -62361,16 +62364,16 @@
         <v>0</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="T15" s="2">
         <v>1500</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="W15" s="2">
         <v>3</v>
@@ -62384,10 +62387,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="F16" s="3">
         <v>200</v>
@@ -62403,13 +62406,13 @@
         <v>0</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="T16" s="3">
         <v>200</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" spans="1:22">
@@ -62420,10 +62423,10 @@
         <v>23</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="F17" s="3">
         <v>2000</v>
@@ -62439,13 +62442,13 @@
         <v>0</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="T17" s="3">
         <v>2000</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" spans="1:22">
@@ -62456,7 +62459,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>14</v>
@@ -62475,13 +62478,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="T18" s="3">
         <v>20000</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" spans="1:22">
@@ -62492,7 +62495,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>14</v>
@@ -62511,13 +62514,13 @@
         <v>0</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="T19" s="3">
         <v>200000</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" spans="1:22">
@@ -62528,7 +62531,7 @@
         <v>26</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>14</v>
@@ -62546,16 +62549,16 @@
         <v>0</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="T20" s="4">
         <v>300000</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" spans="1:22">
@@ -62566,7 +62569,7 @@
         <v>27</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>14</v>
@@ -62584,16 +62587,16 @@
         <v>0</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="T21" s="4">
         <v>300000</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
     </row>
   </sheetData>
